--- a/public/templates/users_template.xlsx
+++ b/public/templates/users_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benab\OneDrive - iitkgp.ac.in\Desktop\WebDev\GameOfTrades\stocksimulator\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D71A9-6308-41A5-8DDA-733DEF50DB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A470E4-53C9-44CF-B0BE-469796D90134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,25 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Key Investor</t>
+  </si>
+  <si>
+    <t>Shares Held</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>mike.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+  </si>
+  <si>
+    <t>sarah.wilson@example.com</t>
+  </si>
+  <si>
+    <t>Sarah Wilson</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>david.brown@example.com</t>
+  </si>
+  <si>
+    <t>David Brown</t>
+  </si>
+  <si>
+    <t>lisa.davis@example.com</t>
+  </si>
+  <si>
+    <t>Lisa Davis</t>
+  </si>
+  <si>
+    <t>robert.miller@example.com</t>
+  </si>
+  <si>
+    <t>Robert Miller</t>
+  </si>
+  <si>
+    <t>emma.jones@example.com</t>
+  </si>
+  <si>
+    <t>Emma Jones</t>
+  </si>
+  <si>
+    <t>alex.garcia@example.com</t>
+  </si>
+  <si>
+    <t>Alex Garcia</t>
+  </si>
+  <si>
+    <t>olivia.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Olivia Martinez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +130,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +164,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,33 +456,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0735F4DD-DB10-404E-AACA-F85EDB362559}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:john.doe@example.com" xr:uid="{1D21BC8A-C684-485B-BFC5-54DFB65B1400}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:jane.smith@example.com" xr:uid="{FF265C96-C7EB-4C32-BE38-0D3E2D242F4D}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:mike.johnson@example.com" xr:uid="{313FB7B7-B8E1-4F7E-9579-C2EEFED210B7}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:sarah.wilson@example.com" xr:uid="{33D553DC-819A-456C-98CF-688DF8C104B8}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:david.brown@example.com" xr:uid="{2E5A2B07-D0D7-44AD-BF12-AB7301D7AF2A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:lisa.davis@example.com" xr:uid="{46ACE38F-64C2-43E5-8FF8-D7A95F6F2FC2}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:robert.miller@example.com" xr:uid="{0882B6B3-FD04-41BE-AD48-02195A95C283}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:emma.jones@example.com" xr:uid="{2F4E552C-3424-4F0E-A9E0-65E7C3D5311F}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:alex.garcia@example.com" xr:uid="{B016C00C-36BC-4A9E-AE54-06D1172A0E1F}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:olivia.martinez@example.com" xr:uid="{CC3B4C29-2EF2-40E0-957C-B7411B14F704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
